--- a/biology/Zoologie/Hugh_Cuming/Hugh_Cuming.xlsx
+++ b/biology/Zoologie/Hugh_Cuming/Hugh_Cuming.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugh Cuming est un malacologiste et un naturaliste britannique surnommé le prince des collections de coquillages, né le 14 février 1791 à Washbrook, près de Kingsbridge, dans le sud du Devon et mort le 10 août 1865.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie d’une fratrie de trois enfants. Ses parents sont Richard et Mary Cuming. Enfant, il côtoie le colonel George Montagu (1753-1815), naturaliste de renom, auteur notamment d’un ouvrage important en conchyliologie, Testacea Britannica (1803-1808). C’est à son contact qu’il commence à se passionner pour les coquillages.
 Ses parents, relativement pauvres, lui font apprendre la fabrication de voiles. Il part en Amérique du Sud en 1819 pour ouvrir une entreprise de voiles. Il s’installe d’abord à Buenos Aires puis, en janvier 1822, à Valparaíso. Il consacre ses loisirs à la collection des coquillages ainsi qu’à faire des observations sur l’histoire naturelle de la baie de Valparaiso. Il réalise de nombreuses observations sur les effets du tremblement de terre de novembre 1822 sur les mollusques tant marins que terrestres. L’impact des tremblements de terre était l’objet d’importantes controverses qui opposaient les géologues de son époque. Cuming conclut que le tremblement de terre n’a pas eu d’impact sur le niveau des eaux. Sa théorie sera infirmée plus tard mais celle-ci lui vaut une certaine réputation auprès des spécialistes de son temps.
@@ -551,7 +565,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces suivantes lui sont dédiées : Aglaia cumingiana, Aquilaria cumingiana, Aristida cumingiana, Begonia cumingiana, Biophytum cumingianum, Panicum cumingianum, Triplaris cumingiana, Varanus cumingi, etc.
 L'IPNI lui attribue une abréviation en botanique, sans plus de précision.
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stanley Peter Dance (1966). Shell Collecting. An Illustrated History. Faber and Faber (Londres) : 344 p.</t>
         </is>
